--- a/data/trans_dic/LAWTONB_2R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3868966300414322</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5310206467325024</v>
+        <v>0.5310206467325023</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3277044796209246</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2421944646910714</v>
+        <v>0.2435971803787374</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2594768683830025</v>
+        <v>0.264013864953705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2336651274807571</v>
+        <v>0.2294390622738479</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3277543819419734</v>
+        <v>0.3338952409440242</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3140375751315332</v>
+        <v>0.3161069078394174</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3632812709770745</v>
+        <v>0.364825862890363</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3426651401576881</v>
+        <v>0.3434079137249873</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4982181482490088</v>
+        <v>0.4997129589397568</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2994410439634697</v>
+        <v>0.2985405782105695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3367405898299388</v>
+        <v>0.3370324658276314</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3084125722267054</v>
+        <v>0.310190277028775</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4505672183809712</v>
+        <v>0.4493717087411426</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3331192000535326</v>
+        <v>0.3350174498679321</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.356922642832474</v>
+        <v>0.3575308560227851</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.316873530738744</v>
+        <v>0.3166458992918585</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4243642704189153</v>
+        <v>0.4264528283323504</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3895289580398083</v>
+        <v>0.3955875367094072</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4442292980924308</v>
+        <v>0.4432214272564975</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4320448715103352</v>
+        <v>0.4337411007486625</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5589544861951893</v>
+        <v>0.5607814439048018</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3622034955121921</v>
+        <v>0.3575497164340446</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3970683895945182</v>
+        <v>0.4005040985482541</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3731734405011549</v>
+        <v>0.373297042202554</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5047141845797746</v>
+        <v>0.5040740720544875</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2039132014979403</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2021876230735182</v>
+        <v>0.2021876230735183</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09658781340843105</v>
+        <v>0.09785909398621806</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1028993181399034</v>
+        <v>0.1075838585779214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08090785204256762</v>
+        <v>0.07923097215783087</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1316051108057593</v>
+        <v>0.130989438223363</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1241889092476453</v>
+        <v>0.1195175578295972</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1609248107852592</v>
+        <v>0.1667919715233886</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2199951479598254</v>
+        <v>0.2201152683216144</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2106134958006387</v>
+        <v>0.2092988837510713</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1256354076679163</v>
+        <v>0.1278219298130776</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1485379834589459</v>
+        <v>0.1467743445622548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1612657206240296</v>
+        <v>0.161819002960889</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1795164288890818</v>
+        <v>0.1751729095367687</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2531624590324718</v>
+        <v>0.2467214258519652</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2590789196112069</v>
+        <v>0.255541651422058</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1778193934386754</v>
+        <v>0.1697509656787565</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1982477550035286</v>
+        <v>0.2026960351193893</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.347857325921712</v>
+        <v>0.3504247915319905</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3641664283281024</v>
+        <v>0.37092920173334</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3665165570978214</v>
+        <v>0.3740186802219774</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2861794463320462</v>
+        <v>0.2891508735243588</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2560672153430008</v>
+        <v>0.2525414389583529</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2709060334749958</v>
+        <v>0.2656875472842746</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2462450787356998</v>
+        <v>0.2504675385986362</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2308114050630574</v>
+        <v>0.2281254864297296</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1217785908523695</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1415001005727409</v>
+        <v>0.1415001005727408</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.4305101791141477</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1207258379928458</v>
+        <v>0.1332900808838285</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04276932941864064</v>
+        <v>0.04160716352832566</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09852786443872695</v>
+        <v>0.09475654185521197</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2477880731057266</v>
+        <v>0.2543293267487091</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04943532425763567</v>
+        <v>0.05142913586140756</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1010763888609029</v>
+        <v>0.09818531366604091</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1488770073942175</v>
+        <v>0.1446907059803797</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2085477540686844</v>
+        <v>0.2077888896473283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04804887276218665</v>
+        <v>0.05923139191093243</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08669194135323473</v>
+        <v>0.08611804568291255</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1271985838436561</v>
+        <v>0.1255187043640511</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4430318976583525</v>
+        <v>0.4508306538622845</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2275192412363409</v>
+        <v>0.2496171206916632</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2605532366818512</v>
+        <v>0.2779115430083954</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2131126260442257</v>
+        <v>0.2010231529272207</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6294689110571248</v>
+        <v>0.6208885525542038</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4275327942824911</v>
+        <v>0.4565721902873432</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4522257622541579</v>
+        <v>0.4801993996092276</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2782594810122047</v>
+        <v>0.2691775629649804</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4602760545098985</v>
+        <v>0.4605587991800485</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2647000197996901</v>
+        <v>0.2617357041993825</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2913265723913152</v>
+        <v>0.2871721618360289</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2121403914369547</v>
+        <v>0.2068898801235994</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.226313164836029</v>
+        <v>0.2273905489297035</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.228255382775474</v>
+        <v>0.2285333646390411</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1789935662502262</v>
+        <v>0.181301749544559</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2183787108629661</v>
+        <v>0.2192445001900777</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3066771923813669</v>
+        <v>0.3091955160175304</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3462607773643596</v>
+        <v>0.3465980323107034</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3184839885356061</v>
+        <v>0.3214214725755891</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3876435933235822</v>
+        <v>0.3873862946128247</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2839663798323573</v>
+        <v>0.2838048458762248</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3082804263615408</v>
+        <v>0.3066191493684051</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2682761114669475</v>
+        <v>0.2695224880549568</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3221501416016384</v>
+        <v>0.3210088532916521</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3028448168486079</v>
+        <v>0.3053305863903671</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3085252517787235</v>
+        <v>0.308450760542425</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2442501797772285</v>
+        <v>0.2436509741247423</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2754534148387474</v>
+        <v>0.2757376160546482</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3782483052958333</v>
+        <v>0.384093332958462</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4190695751478092</v>
+        <v>0.4201943494494489</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3937652435544313</v>
+        <v>0.3950892148440925</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4357762426799613</v>
+        <v>0.4364422025486182</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3385321764295615</v>
+        <v>0.3346412183309902</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3597354333788721</v>
+        <v>0.3602512859415721</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3207210599243435</v>
+        <v>0.3203136130543119</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3582974458095589</v>
+        <v>0.3587068685431967</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>90384</v>
+        <v>90908</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>107527</v>
+        <v>109407</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>82694</v>
+        <v>81199</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>93850</v>
+        <v>95608</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>184575</v>
+        <v>185792</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>230518</v>
+        <v>231498</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>190096</v>
+        <v>190508</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>266844</v>
+        <v>267644</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>287744</v>
+        <v>286879</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>353221</v>
+        <v>353528</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>280242</v>
+        <v>281857</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>370338</v>
+        <v>369356</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>124316</v>
+        <v>125025</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>147908</v>
+        <v>148160</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>112142</v>
+        <v>112061</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>121513</v>
+        <v>122111</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>228945</v>
+        <v>232506</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>281883</v>
+        <v>281244</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>239680</v>
+        <v>240621</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>299374</v>
+        <v>300352</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>348055</v>
+        <v>343583</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>416502</v>
+        <v>420106</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>339087</v>
+        <v>339199</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>414844</v>
+        <v>414318</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8508</v>
+        <v>8620</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12211</v>
+        <v>12766</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15577</v>
+        <v>15254</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>39897</v>
+        <v>39710</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7726</v>
+        <v>7435</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>13369</v>
+        <v>13856</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>41375</v>
+        <v>41398</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>58067</v>
+        <v>57705</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>18882</v>
+        <v>19211</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>29966</v>
+        <v>29610</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>61379</v>
+        <v>61589</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>103915</v>
+        <v>101401</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22299</v>
+        <v>21732</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30744</v>
+        <v>30324</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34236</v>
+        <v>32682</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>60100</v>
+        <v>61449</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21641</v>
+        <v>21801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>30253</v>
+        <v>30815</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>68932</v>
+        <v>70343</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>78901</v>
+        <v>79720</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>38486</v>
+        <v>37956</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>54652</v>
+        <v>53600</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>93722</v>
+        <v>95329</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>133608</v>
+        <v>132053</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4973</v>
+        <v>5491</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1798</v>
+        <v>1749</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11539</v>
+        <v>11098</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6661</v>
+        <v>6837</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1100</v>
+        <v>1144</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3404</v>
+        <v>3306</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12335</v>
+        <v>11988</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14197</v>
+        <v>14145</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2346</v>
+        <v>2892</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6563</v>
+        <v>6519</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>25436</v>
+        <v>25100</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18250</v>
+        <v>18572</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6046</v>
+        <v>6634</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10951</v>
+        <v>11680</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24959</v>
+        <v>23543</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16921</v>
+        <v>16690</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9511</v>
+        <v>10157</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15228</v>
+        <v>16170</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23055</v>
+        <v>22303</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31333</v>
+        <v>31353</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12923</v>
+        <v>12778</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22054</v>
+        <v>21740</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>42422</v>
+        <v>41372</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>113715</v>
+        <v>114256</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>127740</v>
+        <v>127896</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>105331</v>
+        <v>106689</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>154310</v>
+        <v>154922</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>207572</v>
+        <v>209277</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>256186</v>
+        <v>256436</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>247304</v>
+        <v>249585</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>346614</v>
+        <v>346384</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>334884</v>
+        <v>334693</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>400611</v>
+        <v>398452</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>366188</v>
+        <v>367890</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>515689</v>
+        <v>513862</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>152169</v>
+        <v>153418</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>172662</v>
+        <v>172620</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>143732</v>
+        <v>143380</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>194640</v>
+        <v>194841</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>256014</v>
+        <v>259970</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>310055</v>
+        <v>310887</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>305761</v>
+        <v>306789</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>389652</v>
+        <v>390247</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>399234</v>
+        <v>394645</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>467477</v>
+        <v>468147</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>437774</v>
+        <v>437218</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>573553</v>
+        <v>574208</v>
       </c>
     </row>
     <row r="20">
